--- a/doc/time-manager/TimeConfig.xlsx
+++ b/doc/time-manager/TimeConfig.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>第一周(52周)</t>
+  </si>
   <si>
     <t>第一周计划</t>
   </si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>周七</t>
+  </si>
+  <si>
+    <t>周总结</t>
   </si>
   <si>
     <t>8:00.am</t>
@@ -105,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +125,136 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,46 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,75 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,25 +293,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,157 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,26 +502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +543,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,35 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,138 +604,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
@@ -1050,133 +1086,172 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:1">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="35" customHeight="1" spans="1:1">
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="1:12">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="42" customHeight="1" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:12">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:1">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:1">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="1:1">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="51" customHeight="1" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:1">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="28" customHeight="1" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="51" customHeight="1" spans="1:1">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="41" customHeight="1" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:1">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="41" customHeight="1" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="41" customHeight="1" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="41" customHeight="1" spans="1:1">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" ht="39" customHeight="1" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:1">
+      <c r="A22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
